--- a/dataanalysis/data/predictions/1600/09051507_1508.xlsx
+++ b/dataanalysis/data/predictions/1600/09051507_1508.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="134">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-05</t>
   </si>
   <si>
@@ -413,12 +416,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -776,13 +773,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH62"/>
+  <dimension ref="A1:AI62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,19 +882,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300014</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>16.59</v>
@@ -915,7 +915,7 @@
         <v>1235668.99</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -956,8 +956,23 @@
       <c r="W2">
         <v>0.32</v>
       </c>
+      <c r="X2">
+        <v>-3.91</v>
+      </c>
+      <c r="Y2">
+        <v>81</v>
+      </c>
+      <c r="Z2">
+        <v>3.85</v>
+      </c>
       <c r="AC2" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -965,22 +980,25 @@
       <c r="AG2">
         <v>-11.2272367477417</v>
       </c>
-      <c r="AH2" t="s">
-        <v>133</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300035</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>8.609999999999999</v>
@@ -998,7 +1016,7 @@
         <v>394393.91</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K3">
         <v>6</v>
@@ -1039,8 +1057,23 @@
       <c r="W3">
         <v>0.53</v>
       </c>
+      <c r="X3">
+        <v>-4.04</v>
+      </c>
+      <c r="Y3">
+        <v>24.28</v>
+      </c>
+      <c r="Z3">
+        <v>-0.82</v>
+      </c>
       <c r="AC3" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1048,22 +1081,25 @@
       <c r="AG3">
         <v>7.029636383056641</v>
       </c>
-      <c r="AH3" t="s">
-        <v>133</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300092</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>7.42</v>
@@ -1081,7 +1117,7 @@
         <v>139509.99</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1122,8 +1158,23 @@
       <c r="W4">
         <v>-0.17</v>
       </c>
+      <c r="X4">
+        <v>-1.55</v>
+      </c>
+      <c r="Y4">
+        <v>21.3</v>
+      </c>
+      <c r="Z4">
+        <v>6.55</v>
+      </c>
       <c r="AC4" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1131,22 +1182,25 @@
       <c r="AG4">
         <v>2.305636167526245</v>
       </c>
-      <c r="AH4" t="s">
-        <v>133</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300139</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>3.51</v>
@@ -1164,7 +1218,7 @@
         <v>167267.29</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1205,8 +1259,23 @@
       <c r="W5">
         <v>1.55</v>
       </c>
+      <c r="X5">
+        <v>-2.06</v>
+      </c>
+      <c r="Y5">
+        <v>23.68</v>
+      </c>
+      <c r="Z5">
+        <v>1.76</v>
+      </c>
       <c r="AC5" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1214,22 +1283,25 @@
       <c r="AG5">
         <v>2.888267517089844</v>
       </c>
-      <c r="AH5" t="s">
-        <v>133</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300207</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>16.16</v>
@@ -1247,7 +1319,7 @@
         <v>857092.04</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1288,8 +1360,23 @@
       <c r="W6">
         <v>1.86</v>
       </c>
+      <c r="X6">
+        <v>3.47</v>
+      </c>
+      <c r="Y6">
+        <v>30.85</v>
+      </c>
+      <c r="Z6">
+        <v>4.93</v>
+      </c>
       <c r="AC6" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1297,22 +1384,25 @@
       <c r="AG6">
         <v>4.577270984649658</v>
       </c>
-      <c r="AH6" t="s">
-        <v>133</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300237</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>0.63</v>
@@ -1330,7 +1420,7 @@
         <v>53788.1</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -1371,8 +1461,23 @@
       <c r="W7">
         <v>-0.7</v>
       </c>
+      <c r="X7">
+        <v>3.44</v>
+      </c>
+      <c r="Y7">
+        <v>3.46</v>
+      </c>
+      <c r="Z7">
+        <v>8.119999999999999</v>
+      </c>
       <c r="AC7" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1380,22 +1485,25 @@
       <c r="AG7">
         <v>2.025440454483032</v>
       </c>
-      <c r="AH7" t="s">
-        <v>133</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300274</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>16.67</v>
@@ -1413,7 +1521,7 @@
         <v>2171117.57</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1454,8 +1562,23 @@
       <c r="W8">
         <v>0.47</v>
       </c>
+      <c r="X8">
+        <v>1.21</v>
+      </c>
+      <c r="Y8">
+        <v>146.87</v>
+      </c>
+      <c r="Z8">
+        <v>8.52</v>
+      </c>
       <c r="AC8" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1463,22 +1586,25 @@
       <c r="AG8">
         <v>-16.60027885437012</v>
       </c>
-      <c r="AH8" t="s">
-        <v>133</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300277</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>3.17</v>
@@ -1496,7 +1622,7 @@
         <v>74208.31</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1537,8 +1663,23 @@
       <c r="W9">
         <v>-0.03</v>
       </c>
+      <c r="X9">
+        <v>-1.2</v>
+      </c>
+      <c r="Y9">
+        <v>15.16</v>
+      </c>
+      <c r="Z9">
+        <v>1.13</v>
+      </c>
       <c r="AC9" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1546,22 +1687,25 @@
       <c r="AG9">
         <v>-2.70886492729187</v>
       </c>
-      <c r="AH9" t="s">
-        <v>133</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300308</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>10.26</v>
@@ -1579,7 +1723,7 @@
         <v>3059166.82</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K10">
         <v>39</v>
@@ -1620,8 +1764,23 @@
       <c r="W10">
         <v>0.03</v>
       </c>
+      <c r="X10">
+        <v>-9.09</v>
+      </c>
+      <c r="Y10">
+        <v>394</v>
+      </c>
+      <c r="Z10">
+        <v>-3.19</v>
+      </c>
       <c r="AC10" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1629,22 +1788,25 @@
       <c r="AG10">
         <v>-14.92127513885498</v>
       </c>
-      <c r="AH10" t="s">
-        <v>133</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300328</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>3.55</v>
@@ -1662,7 +1824,7 @@
         <v>263505.79</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K11">
         <v>14</v>
@@ -1703,8 +1865,23 @@
       <c r="W11">
         <v>-1.34</v>
       </c>
+      <c r="X11">
+        <v>7.63</v>
+      </c>
+      <c r="Y11">
+        <v>22.05</v>
+      </c>
+      <c r="Z11">
+        <v>14.49</v>
+      </c>
       <c r="AC11" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -1712,22 +1889,25 @@
       <c r="AG11">
         <v>12.18410205841064</v>
       </c>
-      <c r="AH11" t="s">
-        <v>133</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300331</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>19.99</v>
@@ -1745,7 +1925,7 @@
         <v>257292.01</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1786,8 +1966,23 @@
       <c r="W12">
         <v>4.78</v>
       </c>
+      <c r="X12">
+        <v>-4.6</v>
+      </c>
+      <c r="Y12">
+        <v>33.67</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
       <c r="AC12" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -1795,22 +1990,25 @@
       <c r="AG12">
         <v>-3.320062160491943</v>
       </c>
-      <c r="AH12" t="s">
-        <v>134</v>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300394</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>7.57</v>
@@ -1828,7 +2026,7 @@
         <v>916403.2</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1869,8 +2067,23 @@
       <c r="W13">
         <v>0.09</v>
       </c>
+      <c r="X13">
+        <v>-7.36</v>
+      </c>
+      <c r="Y13">
+        <v>183</v>
+      </c>
+      <c r="Z13">
+        <v>-2.03</v>
+      </c>
       <c r="AC13" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1878,22 +2091,25 @@
       <c r="AG13">
         <v>-3.652145862579346</v>
       </c>
-      <c r="AH13" t="s">
-        <v>133</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300409</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>10.29</v>
@@ -1911,7 +2127,7 @@
         <v>343858.28</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K14">
         <v>15</v>
@@ -1952,8 +2168,23 @@
       <c r="W14">
         <v>0.14</v>
       </c>
+      <c r="X14">
+        <v>-0.12</v>
+      </c>
+      <c r="Y14">
+        <v>25.57</v>
+      </c>
+      <c r="Z14">
+        <v>5.05</v>
+      </c>
       <c r="AC14" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1961,22 +2192,25 @@
       <c r="AG14">
         <v>3.768404960632324</v>
       </c>
-      <c r="AH14" t="s">
-        <v>133</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300410</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>6.2</v>
@@ -1994,7 +2228,7 @@
         <v>161464.1</v>
       </c>
       <c r="J15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -2035,8 +2269,23 @@
       <c r="W15">
         <v>-1.55</v>
       </c>
+      <c r="X15">
+        <v>-1.71</v>
+      </c>
+      <c r="Y15">
+        <v>11.1</v>
+      </c>
+      <c r="Z15">
+        <v>-0.36</v>
+      </c>
       <c r="AC15" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2044,22 +2293,25 @@
       <c r="AG15">
         <v>2.604295969009399</v>
       </c>
-      <c r="AH15" t="s">
-        <v>133</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300450</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>20.01</v>
@@ -2077,7 +2329,7 @@
         <v>1610607</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -2118,8 +2370,23 @@
       <c r="W16">
         <v>2.4</v>
       </c>
+      <c r="X16">
+        <v>6.67</v>
+      </c>
+      <c r="Y16">
+        <v>59.11</v>
+      </c>
+      <c r="Z16">
+        <v>9.869999999999999</v>
+      </c>
       <c r="AC16" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -2127,22 +2394,25 @@
       <c r="AG16">
         <v>11.47322845458984</v>
       </c>
-      <c r="AH16" t="s">
-        <v>134</v>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300457</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>9.949999999999999</v>
@@ -2160,7 +2430,7 @@
         <v>292357.84</v>
       </c>
       <c r="J17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -2201,8 +2471,23 @@
       <c r="W17">
         <v>0.45</v>
       </c>
+      <c r="X17">
+        <v>-3.05</v>
+      </c>
+      <c r="Y17">
+        <v>31.28</v>
+      </c>
+      <c r="Z17">
+        <v>2.56</v>
+      </c>
       <c r="AC17" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2210,22 +2495,25 @@
       <c r="AG17">
         <v>-7.033237934112549</v>
       </c>
-      <c r="AH17" t="s">
-        <v>133</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300465</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>3.93</v>
@@ -2243,7 +2531,7 @@
         <v>169082.14</v>
       </c>
       <c r="J18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K18">
         <v>7</v>
@@ -2284,8 +2572,23 @@
       <c r="W18">
         <v>1.08</v>
       </c>
+      <c r="X18">
+        <v>2.86</v>
+      </c>
+      <c r="Y18">
+        <v>26.16</v>
+      </c>
+      <c r="Z18">
+        <v>4.06</v>
+      </c>
       <c r="AC18" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -2293,22 +2596,25 @@
       <c r="AG18">
         <v>8.455771446228027</v>
       </c>
-      <c r="AH18" t="s">
-        <v>134</v>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300469</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>8.94</v>
@@ -2326,7 +2632,7 @@
         <v>155530.18</v>
       </c>
       <c r="J19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K19">
         <v>12</v>
@@ -2367,8 +2673,23 @@
       <c r="W19">
         <v>0.1</v>
       </c>
+      <c r="X19">
+        <v>4.15</v>
+      </c>
+      <c r="Y19">
+        <v>72</v>
+      </c>
+      <c r="Z19">
+        <v>5.09</v>
+      </c>
       <c r="AC19" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2376,22 +2697,25 @@
       <c r="AG19">
         <v>-0.3031007647514343</v>
       </c>
-      <c r="AH19" t="s">
-        <v>133</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300476</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -2409,7 +2733,7 @@
         <v>2373219.12</v>
       </c>
       <c r="J20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K20">
         <v>63</v>
@@ -2450,8 +2774,23 @@
       <c r="W20">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X20">
+        <v>-7.57</v>
+      </c>
+      <c r="Y20">
+        <v>290</v>
+      </c>
+      <c r="Z20">
+        <v>-1.96</v>
+      </c>
       <c r="AC20" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2459,22 +2798,25 @@
       <c r="AG20">
         <v>-2.984923839569092</v>
       </c>
-      <c r="AH20" t="s">
-        <v>133</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300486</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-1.8</v>
@@ -2492,7 +2834,7 @@
         <v>160940.43</v>
       </c>
       <c r="J21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K21">
         <v>13</v>
@@ -2533,8 +2875,23 @@
       <c r="W21">
         <v>0.67</v>
       </c>
+      <c r="X21">
+        <v>-5.86</v>
+      </c>
+      <c r="Y21">
+        <v>27.77</v>
+      </c>
+      <c r="Z21">
+        <v>6.28</v>
+      </c>
       <c r="AC21" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>1</v>
@@ -2542,22 +2899,25 @@
       <c r="AG21">
         <v>9.203075408935547</v>
       </c>
-      <c r="AH21" t="s">
-        <v>134</v>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300491</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>9.66</v>
@@ -2575,7 +2935,7 @@
         <v>75027.03</v>
       </c>
       <c r="J22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K22">
         <v>11</v>
@@ -2616,8 +2976,23 @@
       <c r="W22">
         <v>0.89</v>
       </c>
+      <c r="X22">
+        <v>7.84</v>
+      </c>
+      <c r="Y22">
+        <v>41.4</v>
+      </c>
+      <c r="Z22">
+        <v>11.17</v>
+      </c>
       <c r="AC22" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2625,22 +3000,25 @@
       <c r="AG22">
         <v>-1.703230857849121</v>
       </c>
-      <c r="AH22" t="s">
-        <v>133</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300502</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>11.9</v>
@@ -2658,7 +3036,7 @@
         <v>2786585.8</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2699,8 +3077,23 @@
       <c r="W23">
         <v>0.17</v>
       </c>
+      <c r="X23">
+        <v>-9.949999999999999</v>
+      </c>
+      <c r="Y23">
+        <v>340</v>
+      </c>
+      <c r="Z23">
+        <v>-2.65</v>
+      </c>
       <c r="AC23" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2708,22 +3101,25 @@
       <c r="AG23">
         <v>-0.8296743035316467</v>
       </c>
-      <c r="AH23" t="s">
-        <v>133</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300539</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -2741,7 +3137,7 @@
         <v>98316.10000000001</v>
       </c>
       <c r="J24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2782,8 +3178,23 @@
       <c r="W24">
         <v>4.63</v>
       </c>
+      <c r="X24">
+        <v>19.99</v>
+      </c>
+      <c r="Y24">
+        <v>39.38</v>
+      </c>
+      <c r="Z24">
+        <v>19.99</v>
+      </c>
       <c r="AC24" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -2791,22 +3202,25 @@
       <c r="AG24">
         <v>8.921957969665527</v>
       </c>
-      <c r="AH24" t="s">
-        <v>134</v>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300584</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>14.64</v>
@@ -2824,7 +3238,7 @@
         <v>123727.72</v>
       </c>
       <c r="J25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K25">
         <v>19</v>
@@ -2865,8 +3279,23 @@
       <c r="W25">
         <v>1.37</v>
       </c>
+      <c r="X25">
+        <v>6.39</v>
+      </c>
+      <c r="Y25">
+        <v>81.88</v>
+      </c>
+      <c r="Z25">
+        <v>11.86</v>
+      </c>
       <c r="AC25" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2874,22 +3303,25 @@
       <c r="AG25">
         <v>10.48207473754883</v>
       </c>
-      <c r="AH25" t="s">
-        <v>133</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300618</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>9.720000000000001</v>
@@ -2907,7 +3339,7 @@
         <v>183521.13</v>
       </c>
       <c r="J26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2948,8 +3380,23 @@
       <c r="W26">
         <v>0.44</v>
       </c>
+      <c r="X26">
+        <v>9.34</v>
+      </c>
+      <c r="Y26">
+        <v>55</v>
+      </c>
+      <c r="Z26">
+        <v>15.42</v>
+      </c>
       <c r="AC26" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2957,22 +3404,25 @@
       <c r="AG26">
         <v>-14.36702823638916</v>
       </c>
-      <c r="AH26" t="s">
-        <v>133</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300724</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>5.65</v>
@@ -2990,7 +3440,7 @@
         <v>533937.72</v>
       </c>
       <c r="J27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K27">
         <v>14</v>
@@ -3031,8 +3481,23 @@
       <c r="W27">
         <v>0.53</v>
       </c>
+      <c r="X27">
+        <v>-7.12</v>
+      </c>
+      <c r="Y27">
+        <v>107.5</v>
+      </c>
+      <c r="Z27">
+        <v>0.75</v>
+      </c>
       <c r="AC27" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3040,22 +3505,25 @@
       <c r="AG27">
         <v>22.1491641998291</v>
       </c>
-      <c r="AH27" t="s">
-        <v>133</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300727</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>6.66</v>
@@ -3073,7 +3541,7 @@
         <v>59664.37</v>
       </c>
       <c r="J28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K28">
         <v>16</v>
@@ -3114,8 +3582,23 @@
       <c r="W28">
         <v>0.13</v>
       </c>
+      <c r="X28">
+        <v>-2.76</v>
+      </c>
+      <c r="Y28">
+        <v>41.55</v>
+      </c>
+      <c r="Z28">
+        <v>-1.02</v>
+      </c>
       <c r="AC28" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3123,22 +3606,25 @@
       <c r="AG28">
         <v>0.9264586567878723</v>
       </c>
-      <c r="AH28" t="s">
-        <v>133</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300763</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>19.99</v>
@@ -3156,7 +3642,7 @@
         <v>443198</v>
       </c>
       <c r="J29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3197,8 +3683,23 @@
       <c r="W29">
         <v>1.14</v>
       </c>
+      <c r="X29">
+        <v>1.98</v>
+      </c>
+      <c r="Y29">
+        <v>95.8</v>
+      </c>
+      <c r="Z29">
+        <v>7.35</v>
+      </c>
       <c r="AC29" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3206,22 +3707,25 @@
       <c r="AG29">
         <v>1.717840433120728</v>
       </c>
-      <c r="AH29" t="s">
-        <v>133</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300801</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>3.02</v>
@@ -3239,7 +3743,7 @@
         <v>103478.13</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3280,8 +3784,23 @@
       <c r="W30">
         <v>0.25</v>
       </c>
+      <c r="X30">
+        <v>5.33</v>
+      </c>
+      <c r="Y30">
+        <v>32.5</v>
+      </c>
+      <c r="Z30">
+        <v>14.72</v>
+      </c>
       <c r="AC30" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3289,22 +3808,25 @@
       <c r="AG30">
         <v>-58.16764831542969</v>
       </c>
-      <c r="AH30" t="s">
-        <v>133</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300827</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>3.93</v>
@@ -3322,7 +3844,7 @@
         <v>454499.23</v>
       </c>
       <c r="J31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3363,8 +3885,23 @@
       <c r="W31">
         <v>-0.75</v>
       </c>
+      <c r="X31">
+        <v>0.85</v>
+      </c>
+      <c r="Y31">
+        <v>36.66</v>
+      </c>
+      <c r="Z31">
+        <v>3.38</v>
+      </c>
       <c r="AC31" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3372,22 +3909,25 @@
       <c r="AG31">
         <v>8.711727142333984</v>
       </c>
-      <c r="AH31" t="s">
-        <v>133</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300859</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>6.98</v>
@@ -3405,7 +3945,7 @@
         <v>100693.43</v>
       </c>
       <c r="J32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3446,8 +3986,23 @@
       <c r="W32">
         <v>1</v>
       </c>
+      <c r="X32">
+        <v>-2.75</v>
+      </c>
+      <c r="Y32">
+        <v>48.87</v>
+      </c>
+      <c r="Z32">
+        <v>3.21</v>
+      </c>
       <c r="AC32" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3455,22 +4010,25 @@
       <c r="AG32">
         <v>5.795359134674072</v>
       </c>
-      <c r="AH32" t="s">
-        <v>133</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300953</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>3.84</v>
@@ -3488,7 +4046,7 @@
         <v>151201.45</v>
       </c>
       <c r="J33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K33">
         <v>8</v>
@@ -3529,8 +4087,23 @@
       <c r="W33">
         <v>0.64</v>
       </c>
+      <c r="X33">
+        <v>2.9</v>
+      </c>
+      <c r="Y33">
+        <v>162.8</v>
+      </c>
+      <c r="Z33">
+        <v>7.42</v>
+      </c>
       <c r="AC33" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3538,22 +4111,25 @@
       <c r="AG33">
         <v>6.278149604797363</v>
       </c>
-      <c r="AH33" t="s">
-        <v>133</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300967</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-0.65</v>
@@ -3571,7 +4147,7 @@
         <v>53625.68</v>
       </c>
       <c r="J34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3612,8 +4188,23 @@
       <c r="W34">
         <v>0.04</v>
       </c>
+      <c r="X34">
+        <v>3.1</v>
+      </c>
+      <c r="Y34">
+        <v>28</v>
+      </c>
+      <c r="Z34">
+        <v>7.16</v>
+      </c>
       <c r="AC34" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3621,22 +4212,25 @@
       <c r="AG34">
         <v>3.12836480140686</v>
       </c>
-      <c r="AH34" t="s">
-        <v>133</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301031</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>3.2</v>
@@ -3654,7 +4248,7 @@
         <v>84566.48</v>
       </c>
       <c r="J35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -3695,8 +4289,23 @@
       <c r="W35">
         <v>0.59</v>
       </c>
+      <c r="X35">
+        <v>-2.48</v>
+      </c>
+      <c r="Y35">
+        <v>107.88</v>
+      </c>
+      <c r="Z35">
+        <v>-0.3</v>
+      </c>
       <c r="AC35" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3704,22 +4313,25 @@
       <c r="AG35">
         <v>2.655843496322632</v>
       </c>
-      <c r="AH35" t="s">
-        <v>133</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301052</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>4.2</v>
@@ -3737,7 +4349,7 @@
         <v>43592</v>
       </c>
       <c r="J36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K36">
         <v>12</v>
@@ -3778,8 +4390,23 @@
       <c r="W36">
         <v>-0.23</v>
       </c>
+      <c r="X36">
+        <v>-3.04</v>
+      </c>
+      <c r="Y36">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="Z36">
+        <v>-0.41</v>
+      </c>
       <c r="AC36" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3787,22 +4414,25 @@
       <c r="AG36">
         <v>3.024873018264771</v>
       </c>
-      <c r="AH36" t="s">
-        <v>133</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301150</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>6.3</v>
@@ -3820,7 +4450,7 @@
         <v>74244.35000000001</v>
       </c>
       <c r="J37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3861,8 +4491,23 @@
       <c r="W37">
         <v>-0.39</v>
       </c>
+      <c r="X37">
+        <v>10.75</v>
+      </c>
+      <c r="Y37">
+        <v>37.3</v>
+      </c>
+      <c r="Z37">
+        <v>14.56</v>
+      </c>
       <c r="AC37" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3870,22 +4515,25 @@
       <c r="AG37">
         <v>-2.056195497512817</v>
       </c>
-      <c r="AH37" t="s">
-        <v>133</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301219</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>5.88</v>
@@ -3903,7 +4551,7 @@
         <v>75840.06</v>
       </c>
       <c r="J38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K38">
         <v>13</v>
@@ -3944,8 +4592,23 @@
       <c r="W38">
         <v>0.27</v>
       </c>
+      <c r="X38">
+        <v>3.14</v>
+      </c>
+      <c r="Y38">
+        <v>76.59</v>
+      </c>
+      <c r="Z38">
+        <v>7.37</v>
+      </c>
       <c r="AC38" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3953,22 +4616,25 @@
       <c r="AG38">
         <v>3.459095001220703</v>
       </c>
-      <c r="AH38" t="s">
-        <v>133</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301312</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>4.58</v>
@@ -3986,7 +4652,7 @@
         <v>75268.13</v>
       </c>
       <c r="J39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K39">
         <v>20</v>
@@ -4027,8 +4693,23 @@
       <c r="W39">
         <v>-0.67</v>
       </c>
+      <c r="X39">
+        <v>-0.68</v>
+      </c>
+      <c r="Y39">
+        <v>63.49</v>
+      </c>
+      <c r="Z39">
+        <v>0.11</v>
+      </c>
       <c r="AC39" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4036,22 +4717,25 @@
       <c r="AG39">
         <v>4.342220306396484</v>
       </c>
-      <c r="AH39" t="s">
-        <v>133</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301389</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>10.61</v>
@@ -4069,7 +4753,7 @@
         <v>138214.31</v>
       </c>
       <c r="J40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -4110,8 +4794,23 @@
       <c r="W40">
         <v>3.37</v>
       </c>
+      <c r="X40">
+        <v>-5.08</v>
+      </c>
+      <c r="Y40">
+        <v>65.8</v>
+      </c>
+      <c r="Z40">
+        <v>-0.9</v>
+      </c>
       <c r="AC40" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4119,22 +4818,25 @@
       <c r="AG40">
         <v>1.912383556365967</v>
       </c>
-      <c r="AH40" t="s">
-        <v>133</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301413</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>8.800000000000001</v>
@@ -4152,7 +4854,7 @@
         <v>80591.03999999999</v>
       </c>
       <c r="J41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K41">
         <v>11</v>
@@ -4193,8 +4895,23 @@
       <c r="W41">
         <v>0.79</v>
       </c>
+      <c r="X41">
+        <v>8.65</v>
+      </c>
+      <c r="Y41">
+        <v>152</v>
+      </c>
+      <c r="Z41">
+        <v>14.29</v>
+      </c>
       <c r="AC41" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4202,22 +4919,25 @@
       <c r="AG41">
         <v>0.03525223210453987</v>
       </c>
-      <c r="AH41" t="s">
-        <v>133</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301488</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>16.86</v>
@@ -4235,7 +4955,7 @@
         <v>144161.69</v>
       </c>
       <c r="J42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K42">
         <v>8</v>
@@ -4276,8 +4996,23 @@
       <c r="W42">
         <v>0.08</v>
       </c>
+      <c r="X42">
+        <v>-4.03</v>
+      </c>
+      <c r="Y42">
+        <v>146</v>
+      </c>
+      <c r="Z42">
+        <v>-1.32</v>
+      </c>
       <c r="AC42" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4285,22 +5020,25 @@
       <c r="AG42">
         <v>9.506622314453125</v>
       </c>
-      <c r="AH42" t="s">
-        <v>133</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688006</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>19.99</v>
@@ -4318,7 +5056,7 @@
         <v>174927.64</v>
       </c>
       <c r="J43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K43">
         <v>5</v>
@@ -4359,8 +5097,23 @@
       <c r="W43">
         <v>0.16</v>
       </c>
+      <c r="X43">
+        <v>2.26</v>
+      </c>
+      <c r="Y43">
+        <v>43.6</v>
+      </c>
+      <c r="Z43">
+        <v>13.13</v>
+      </c>
       <c r="AC43" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4368,22 +5121,25 @@
       <c r="AG43">
         <v>-6.343348979949951</v>
       </c>
-      <c r="AH43" t="s">
-        <v>133</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688062</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>7.38</v>
@@ -4401,7 +5157,7 @@
         <v>132088.1</v>
       </c>
       <c r="J44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K44">
         <v>9</v>
@@ -4442,8 +5198,23 @@
       <c r="W44">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X44">
+        <v>-7.94</v>
+      </c>
+      <c r="Y44">
+        <v>58.29</v>
+      </c>
+      <c r="Z44">
+        <v>0.12</v>
+      </c>
       <c r="AC44" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>1</v>
@@ -4451,22 +5222,25 @@
       <c r="AG44">
         <v>0.01513192057609558</v>
       </c>
-      <c r="AH44" t="s">
-        <v>133</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688066</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>15.17</v>
@@ -4484,7 +5258,7 @@
         <v>179048.24</v>
       </c>
       <c r="J45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4525,8 +5299,23 @@
       <c r="W45">
         <v>0.77</v>
       </c>
+      <c r="X45">
+        <v>9.1</v>
+      </c>
+      <c r="Y45">
+        <v>41.9</v>
+      </c>
+      <c r="Z45">
+        <v>15.49</v>
+      </c>
       <c r="AC45" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4534,22 +5323,25 @@
       <c r="AG45">
         <v>4.733711242675781</v>
       </c>
-      <c r="AH45" t="s">
-        <v>133</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688116</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>12.33</v>
@@ -4567,7 +5359,7 @@
         <v>156947.12</v>
       </c>
       <c r="J46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4608,8 +5400,23 @@
       <c r="W46">
         <v>0.31</v>
       </c>
+      <c r="X46">
+        <v>1.02</v>
+      </c>
+      <c r="Y46">
+        <v>57</v>
+      </c>
+      <c r="Z46">
+        <v>3.73</v>
+      </c>
       <c r="AC46" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4617,22 +5424,25 @@
       <c r="AG46">
         <v>7.198576927185059</v>
       </c>
-      <c r="AH46" t="s">
-        <v>133</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688141</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>12.29</v>
@@ -4650,7 +5460,7 @@
         <v>175126.11</v>
       </c>
       <c r="J47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -4691,8 +5501,23 @@
       <c r="W47">
         <v>1.52</v>
       </c>
+      <c r="X47">
+        <v>-0.74</v>
+      </c>
+      <c r="Y47">
+        <v>48.13</v>
+      </c>
+      <c r="Z47">
+        <v>1.67</v>
+      </c>
       <c r="AC47" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4700,22 +5525,25 @@
       <c r="AG47">
         <v>-0.115471825003624</v>
       </c>
-      <c r="AH47" t="s">
-        <v>133</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688155</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>14.23</v>
@@ -4733,7 +5561,7 @@
         <v>80364.24000000001</v>
       </c>
       <c r="J48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -4774,8 +5602,23 @@
       <c r="W48">
         <v>0.26</v>
       </c>
+      <c r="X48">
+        <v>3.17</v>
+      </c>
+      <c r="Y48">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="Z48">
+        <v>10.21</v>
+      </c>
       <c r="AC48" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4783,22 +5626,25 @@
       <c r="AG48">
         <v>1.746893525123596</v>
       </c>
-      <c r="AH48" t="s">
-        <v>133</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688195</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>20</v>
@@ -4816,7 +5662,7 @@
         <v>174951.55</v>
       </c>
       <c r="J49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K49">
         <v>15</v>
@@ -4857,8 +5703,23 @@
       <c r="W49">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X49">
+        <v>-4.82</v>
+      </c>
+      <c r="Y49">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="Z49">
+        <v>3.91</v>
+      </c>
       <c r="AC49" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>1</v>
@@ -4866,22 +5727,25 @@
       <c r="AG49">
         <v>9.975192070007324</v>
       </c>
-      <c r="AH49" t="s">
-        <v>134</v>
+      <c r="AH49">
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688222</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-2.31</v>
@@ -4899,7 +5763,7 @@
         <v>97056.69</v>
       </c>
       <c r="J50" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K50">
         <v>6</v>
@@ -4940,8 +5804,23 @@
       <c r="W50">
         <v>-0.63</v>
       </c>
+      <c r="X50">
+        <v>-0.37</v>
+      </c>
+      <c r="Y50">
+        <v>27.61</v>
+      </c>
+      <c r="Z50">
+        <v>2.03</v>
+      </c>
       <c r="AC50" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4949,22 +5828,25 @@
       <c r="AG50">
         <v>5.604958534240723</v>
       </c>
-      <c r="AH50" t="s">
-        <v>133</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688261</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>3.67</v>
@@ -4982,7 +5864,7 @@
         <v>70478.95</v>
       </c>
       <c r="J51" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -5023,8 +5905,23 @@
       <c r="W51">
         <v>-0.28</v>
       </c>
+      <c r="X51">
+        <v>-6.89</v>
+      </c>
+      <c r="Y51">
+        <v>88.5</v>
+      </c>
+      <c r="Z51">
+        <v>-0.34</v>
+      </c>
       <c r="AC51" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5032,22 +5929,25 @@
       <c r="AG51">
         <v>5.120135307312012</v>
       </c>
-      <c r="AH51" t="s">
-        <v>133</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688286</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>5.38</v>
@@ -5065,7 +5965,7 @@
         <v>43776.68</v>
       </c>
       <c r="J52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K52">
         <v>6</v>
@@ -5106,8 +6006,23 @@
       <c r="W52">
         <v>-0.72</v>
       </c>
+      <c r="X52">
+        <v>-1.34</v>
+      </c>
+      <c r="Y52">
+        <v>98.89</v>
+      </c>
+      <c r="Z52">
+        <v>0.61</v>
+      </c>
       <c r="AC52" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5115,22 +6030,25 @@
       <c r="AG52">
         <v>3.457169055938721</v>
       </c>
-      <c r="AH52" t="s">
-        <v>133</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688299</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>7.66</v>
@@ -5148,7 +6066,7 @@
         <v>116473.38</v>
       </c>
       <c r="J53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K53">
         <v>6</v>
@@ -5189,8 +6107,23 @@
       <c r="W53">
         <v>-0.47</v>
       </c>
+      <c r="X53">
+        <v>-1.87</v>
+      </c>
+      <c r="Y53">
+        <v>25.5</v>
+      </c>
+      <c r="Z53">
+        <v>1.39</v>
+      </c>
       <c r="AC53" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5198,22 +6131,25 @@
       <c r="AG53">
         <v>0.8863622546195984</v>
       </c>
-      <c r="AH53" t="s">
-        <v>133</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688331</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>4.32</v>
@@ -5231,7 +6167,7 @@
         <v>77407.84</v>
       </c>
       <c r="J54" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K54">
         <v>4</v>
@@ -5272,8 +6208,23 @@
       <c r="W54">
         <v>-0.04</v>
       </c>
+      <c r="X54">
+        <v>0.9</v>
+      </c>
+      <c r="Y54">
+        <v>94.78</v>
+      </c>
+      <c r="Z54">
+        <v>2.83</v>
+      </c>
       <c r="AC54" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5281,22 +6232,25 @@
       <c r="AG54">
         <v>1.326666831970215</v>
       </c>
-      <c r="AH54" t="s">
-        <v>133</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688388</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>8.27</v>
@@ -5314,7 +6268,7 @@
         <v>128934.54</v>
       </c>
       <c r="J55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K55">
         <v>4</v>
@@ -5355,8 +6309,23 @@
       <c r="W55">
         <v>-0.01</v>
       </c>
+      <c r="X55">
+        <v>-6.93</v>
+      </c>
+      <c r="Y55">
+        <v>30.96</v>
+      </c>
+      <c r="Z55">
+        <v>-0.19</v>
+      </c>
       <c r="AC55" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5364,22 +6333,25 @@
       <c r="AG55">
         <v>10.36990928649902</v>
       </c>
-      <c r="AH55" t="s">
-        <v>133</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688390</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>11.75</v>
@@ -5397,7 +6369,7 @@
         <v>113608.33</v>
       </c>
       <c r="J56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K56">
         <v>7</v>
@@ -5438,8 +6410,23 @@
       <c r="W56">
         <v>0.02</v>
       </c>
+      <c r="X56">
+        <v>-1.54</v>
+      </c>
+      <c r="Y56">
+        <v>60.36</v>
+      </c>
+      <c r="Z56">
+        <v>3.18</v>
+      </c>
       <c r="AC56" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5447,22 +6434,25 @@
       <c r="AG56">
         <v>3.815854787826538</v>
       </c>
-      <c r="AH56" t="s">
-        <v>133</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688411</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>14.92</v>
@@ -5480,7 +6470,7 @@
         <v>121808.06</v>
       </c>
       <c r="J57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K57">
         <v>4</v>
@@ -5521,8 +6511,23 @@
       <c r="W57">
         <v>0.98</v>
       </c>
+      <c r="X57">
+        <v>-3.17</v>
+      </c>
+      <c r="Y57">
+        <v>197.88</v>
+      </c>
+      <c r="Z57">
+        <v>9.81</v>
+      </c>
       <c r="AC57" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5530,22 +6535,25 @@
       <c r="AG57">
         <v>1.3497314453125</v>
       </c>
-      <c r="AH57" t="s">
-        <v>133</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688498</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>2.83</v>
@@ -5563,7 +6571,7 @@
         <v>305784.81</v>
       </c>
       <c r="J58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K58">
         <v>19</v>
@@ -5604,8 +6612,23 @@
       <c r="W58">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X58">
+        <v>-13.22</v>
+      </c>
+      <c r="Y58">
+        <v>370</v>
+      </c>
+      <c r="Z58">
+        <v>-0.9</v>
+      </c>
       <c r="AC58" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5613,22 +6636,25 @@
       <c r="AG58">
         <v>-1.357147336006165</v>
       </c>
-      <c r="AH58" t="s">
-        <v>133</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688499</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>20</v>
@@ -5646,7 +6672,7 @@
         <v>171749.73</v>
       </c>
       <c r="J59" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -5687,8 +6713,23 @@
       <c r="W59">
         <v>1.34</v>
       </c>
+      <c r="X59">
+        <v>12.57</v>
+      </c>
+      <c r="Y59">
+        <v>79.88</v>
+      </c>
+      <c r="Z59">
+        <v>17.71</v>
+      </c>
       <c r="AC59" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>1</v>
@@ -5696,22 +6737,25 @@
       <c r="AG59">
         <v>17.6346321105957</v>
       </c>
-      <c r="AH59" t="s">
-        <v>134</v>
+      <c r="AH59">
+        <v>1</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688559</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>13.29</v>
@@ -5729,7 +6773,7 @@
         <v>143713.61</v>
       </c>
       <c r="J60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -5770,8 +6814,23 @@
       <c r="W60">
         <v>0.06</v>
       </c>
+      <c r="X60">
+        <v>1.84</v>
+      </c>
+      <c r="Y60">
+        <v>44.8</v>
+      </c>
+      <c r="Z60">
+        <v>8.34</v>
+      </c>
       <c r="AC60" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5779,22 +6838,25 @@
       <c r="AG60">
         <v>7.564558982849121</v>
       </c>
-      <c r="AH60" t="s">
-        <v>133</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688709</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>1.8</v>
@@ -5812,7 +6874,7 @@
         <v>123485.81</v>
       </c>
       <c r="J61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K61">
         <v>11</v>
@@ -5853,8 +6915,23 @@
       <c r="W61">
         <v>0.28</v>
       </c>
+      <c r="X61">
+        <v>-7.9</v>
+      </c>
+      <c r="Y61">
+        <v>51</v>
+      </c>
+      <c r="Z61">
+        <v>-2.15</v>
+      </c>
       <c r="AC61" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5862,22 +6939,25 @@
       <c r="AG61">
         <v>6.079547882080078</v>
       </c>
-      <c r="AH61" t="s">
-        <v>133</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688717</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>8.18</v>
@@ -5895,7 +6975,7 @@
         <v>98918.21000000001</v>
       </c>
       <c r="J62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -5936,8 +7016,23 @@
       <c r="W62">
         <v>0.95</v>
       </c>
+      <c r="X62">
+        <v>-0.73</v>
+      </c>
+      <c r="Y62">
+        <v>84.86</v>
+      </c>
+      <c r="Z62">
+        <v>1.87</v>
+      </c>
       <c r="AC62" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -5945,8 +7040,11 @@
       <c r="AG62">
         <v>3.636403322219849</v>
       </c>
-      <c r="AH62" t="s">
-        <v>133</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
